--- a/transferExcelToJson/ice_break_format.xlsx
+++ b/transferExcelToJson/ice_break_format.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuandy/Documents/github/icebreak/transferExcelToJson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1380E11-233E-4E63-91FF-1C6B19F5F289}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C3FF7CA5-3AAC-224B-9A00-1D0AA3757E3D}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
   <si>
     <t>遊戲名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -289,11 +294,15 @@
     <t>15人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>簡述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -342,16 +351,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -708,27 +717,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8EAD0F5-B463-1949-99AA-642750839A78}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="44.21875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="32.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="49.77734375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="20.88671875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.1640625" style="1" customWidth="1"/>
+    <col min="6" max="7" width="32.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="49.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.83203125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -748,13 +757,16 @@
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="156" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
@@ -771,12 +783,13 @@
       <c r="F2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="4"/>
+      <c r="H2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="109.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="126" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -793,12 +806,13 @@
       <c r="F3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="4"/>
+      <c r="H3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>11</v>
       </c>
@@ -815,12 +829,13 @@
       <c r="F4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2"/>
+      <c r="H4" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
@@ -837,12 +852,13 @@
       <c r="F5" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2"/>
+      <c r="H5" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="144" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>8</v>
       </c>
@@ -859,12 +875,13 @@
       <c r="F6" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="5"/>
+      <c r="H6" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:8" ht="156" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="180" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>10</v>
       </c>
@@ -881,12 +898,13 @@
       <c r="F7" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="5"/>
+      <c r="H7" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:8" ht="234" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="270" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>12</v>
       </c>
@@ -903,12 +921,13 @@
       <c r="F8" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:8" ht="93.6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="108" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>14</v>
       </c>
@@ -925,12 +944,13 @@
       <c r="F9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="5"/>
+      <c r="H9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>15</v>
       </c>
@@ -947,10 +967,11 @@
       <c r="F10" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/transferExcelToJson/ice_break_format.xlsx
+++ b/transferExcelToJson/ice_break_format.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880"/>
+    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="15880"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -38,35 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="52">
-  <si>
-    <t>遊戲名稱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>動靜態</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>道具</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊戲目標</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>遊戲規則</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>反思</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
   <si>
     <t>名字心臟病</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -101,10 +73,6 @@
   </si>
   <si>
     <t>猜猜我是誰</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>適合人數</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -295,7 +263,43 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>簡述</t>
+    <t>name</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>numbers</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>items</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>purpose</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rules</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>summary</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rethink</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>familiar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>images</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -718,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
@@ -737,239 +741,242 @@
     <col min="10" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="180" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="180" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" ht="126" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="126" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="I3" s="2"/>
     </row>
-    <row r="4" spans="1:9" ht="72" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="I4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="108" x14ac:dyDescent="0.15">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="144" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="144" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I6" s="5"/>
     </row>
-    <row r="7" spans="1:9" ht="180" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="180" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="9" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="I7" s="5"/>
     </row>
-    <row r="8" spans="1:9" ht="270" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="270" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="9" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="I8" s="5"/>
     </row>
-    <row r="9" spans="1:9" ht="108" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="108" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="9" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="I9" s="5"/>
     </row>
-    <row r="10" spans="1:9" ht="72" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="9" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="I10" s="5"/>
     </row>

--- a/transferExcelToJson/ice_break_format.xlsx
+++ b/transferExcelToJson/ice_break_format.xlsx
@@ -1,44 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuandy/Documents/github/icebreak/transferExcelToJson/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A937A4EE-A69A-5D4A-900A-732154CE05D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="480" windowWidth="28800" windowHeight="15880"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
   <si>
     <t>名字心臟病</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -299,15 +292,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>images</t>
+    <t>heart</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nameRollSnow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>priase</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>truthandlie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cards</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hitGhost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shepherd</t>
+  </si>
+  <si>
+    <t>exchange</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guess</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>imageName</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -721,14 +749,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="18" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -741,7 +770,7 @@
     <col min="10" max="16384" width="11.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>43</v>
       </c>
@@ -770,10 +799,10 @@
         <v>50</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="180" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:10" ht="190">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -795,8 +824,11 @@
         <v>16</v>
       </c>
       <c r="I2" s="2"/>
+      <c r="J2" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" ht="126" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="133">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
@@ -818,8 +850,11 @@
         <v>17</v>
       </c>
       <c r="I3" s="2"/>
+      <c r="J3" s="1" t="s">
+        <v>53</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" ht="72" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:10" ht="76">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -841,8 +876,11 @@
         <v>38</v>
       </c>
       <c r="I4" s="2"/>
+      <c r="J4" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="108" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:10" ht="114">
       <c r="A5" s="2" t="s">
         <v>6</v>
       </c>
@@ -864,8 +902,11 @@
         <v>22</v>
       </c>
       <c r="I5" s="2"/>
+      <c r="J5" s="1" t="s">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="144" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:10" ht="152">
       <c r="A6" s="5" t="s">
         <v>1</v>
       </c>
@@ -887,8 +928,11 @@
         <v>39</v>
       </c>
       <c r="I6" s="5"/>
+      <c r="J6" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" ht="180" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:10" ht="190">
       <c r="A7" s="5" t="s">
         <v>3</v>
       </c>
@@ -910,8 +954,11 @@
         <v>40</v>
       </c>
       <c r="I7" s="5"/>
+      <c r="J7" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" ht="270" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:10" ht="285">
       <c r="A8" s="5" t="s">
         <v>5</v>
       </c>
@@ -933,8 +980,11 @@
         <v>30</v>
       </c>
       <c r="I8" s="5"/>
+      <c r="J8" s="1" t="s">
+        <v>58</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" ht="108" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:10" ht="114">
       <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
@@ -956,8 +1006,11 @@
         <v>41</v>
       </c>
       <c r="I9" s="5"/>
+      <c r="J9" s="1" t="s">
+        <v>59</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" ht="72" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:10" ht="76">
       <c r="A10" s="5" t="s">
         <v>8</v>
       </c>
@@ -979,6 +1032,9 @@
         <v>37</v>
       </c>
       <c r="I10" s="5"/>
+      <c r="J10" s="1" t="s">
+        <v>60</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/transferExcelToJson/ice_break_format.xlsx
+++ b/transferExcelToJson/ice_break_format.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/wuandy/Documents/github/icebreak/transferExcelToJson/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A937A4EE-A69A-5D4A-900A-732154CE05D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3060524-01E3-C94D-A089-5F73EE73AC00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="60">
   <si>
     <t>名字心臟病</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,10 +70,6 @@
   </si>
   <si>
     <t>5-7人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -84,10 +80,6 @@
     <t>1.預備撲克牌大小的白紙(人數*5=數量)
 2.預備5張特殊鬼牌(可寫活動名稱)
 2.數支彩色筆(同人數)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>動</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -264,10 +256,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>items</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -328,6 +316,10 @@
   </si>
   <si>
     <t>imageName</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>cata</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -752,9 +744,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="115" zoomScaleNormal="115" zoomScalePageLayoutView="115" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="18"/>
@@ -772,34 +764,34 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="G1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="190">
@@ -810,22 +802,22 @@
       <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="G2" s="4"/>
       <c r="H2" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I2" s="2"/>
       <c r="J2" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="133">
@@ -834,24 +826,24 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>10</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>11</v>
       </c>
       <c r="G3" s="4"/>
       <c r="H3" s="6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="76">
@@ -860,24 +852,24 @@
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>10</v>
+        <v>16</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="114">
@@ -886,24 +878,24 @@
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="152">
@@ -912,24 +904,24 @@
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
+        <v>16</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G6" s="5"/>
       <c r="H6" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I6" s="5"/>
       <c r="J6" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="190">
@@ -938,24 +930,24 @@
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
       </c>
       <c r="E7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="G7" s="5"/>
       <c r="H7" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="285">
@@ -964,24 +956,24 @@
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
+      </c>
+      <c r="E8" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="F8" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I8" s="5"/>
       <c r="J8" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="114">
@@ -990,24 +982,24 @@
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="F9" s="5" t="s">
         <v>32</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="5" t="s">
-        <v>34</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I9" s="5"/>
       <c r="J9" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="76">
@@ -1016,24 +1008,24 @@
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>13</v>
+        <v>40</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="I10" s="5"/>
       <c r="J10" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
